--- a/数据库设计/用户、区域、机构、日志.xlsx
+++ b/数据库设计/用户、区域、机构、日志.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Workspaces\GarletonAcademy\数据库设计\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9750" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9750"/>
   </bookViews>
   <sheets>
     <sheet name="USER" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="68">
   <si>
     <t>列名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -282,6 +282,18 @@
   </si>
   <si>
     <t>VARCHAR(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SEX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAR(6)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>性别</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -682,10 +694,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -835,6 +847,17 @@
       </c>
       <c r="C13" s="1" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1106,7 +1129,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>

--- a/数据库设计/用户、区域、机构、日志.xlsx
+++ b/数据库设计/用户、区域、机构、日志.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9750"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9750" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="USER" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="67">
   <si>
     <t>列名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -178,10 +178,6 @@
   </si>
   <si>
     <t>TIME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DATETIME</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -696,7 +692,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -755,7 +751,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>14</v>
@@ -774,7 +770,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>3</v>
@@ -785,7 +781,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>3</v>
@@ -851,13 +847,13 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -984,7 +980,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
@@ -995,7 +991,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
@@ -1017,67 +1013,67 @@
         <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>4</v>
@@ -1088,13 +1084,13 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
@@ -1129,8 +1125,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1157,7 +1153,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
@@ -1168,7 +1164,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
@@ -1179,7 +1175,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
@@ -1187,21 +1183,21 @@
         <v>38</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
